--- a/Code/Results/Cases/Case_1_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_233/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9086607725164079</v>
+        <v>1.035308180912854</v>
       </c>
       <c r="D2">
-        <v>1.022277282705679</v>
+        <v>1.053007218568018</v>
       </c>
       <c r="E2">
-        <v>0.9251625514999305</v>
+        <v>1.034119133837381</v>
       </c>
       <c r="F2">
-        <v>0.9970856874038316</v>
+        <v>1.057544371387219</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047822600465578</v>
+        <v>1.040809748337796</v>
       </c>
       <c r="J2">
-        <v>0.9339645898446753</v>
+        <v>1.040422665769014</v>
       </c>
       <c r="K2">
-        <v>1.033434744335407</v>
+        <v>1.055754377434827</v>
       </c>
       <c r="L2">
-        <v>0.9377732929429837</v>
+        <v>1.036919524428249</v>
       </c>
       <c r="M2">
-        <v>1.008585773102599</v>
+        <v>1.0602790502247</v>
       </c>
       <c r="N2">
-        <v>0.9352909266894902</v>
+        <v>1.041900185292554</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9287609281127218</v>
+        <v>1.038300985665554</v>
       </c>
       <c r="D3">
-        <v>1.030757647260892</v>
+        <v>1.054258277299736</v>
       </c>
       <c r="E3">
-        <v>0.942476592677896</v>
+        <v>1.036735000896053</v>
       </c>
       <c r="F3">
-        <v>1.009312605771318</v>
+        <v>1.059398956129997</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05163648137572</v>
+        <v>1.04122405548643</v>
       </c>
       <c r="J3">
-        <v>0.9514018533115544</v>
+        <v>1.043048671635841</v>
       </c>
       <c r="K3">
-        <v>1.041011541026283</v>
+        <v>1.056817272340243</v>
       </c>
       <c r="L3">
-        <v>0.9539025455627093</v>
+        <v>1.039339705122441</v>
       </c>
       <c r="M3">
-        <v>1.019827700766901</v>
+        <v>1.061944851116097</v>
       </c>
       <c r="N3">
-        <v>0.9527529530705746</v>
+        <v>1.044529920388919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9407658632540848</v>
+        <v>1.0402242690657</v>
       </c>
       <c r="D4">
-        <v>1.035886527171833</v>
+        <v>1.0550605577591</v>
       </c>
       <c r="E4">
-        <v>0.9528307129668225</v>
+        <v>1.038415663561509</v>
       </c>
       <c r="F4">
-        <v>1.016683865378162</v>
+        <v>1.060589195123923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05391658570254</v>
+        <v>1.041487130357193</v>
       </c>
       <c r="J4">
-        <v>0.9618165419762978</v>
+        <v>1.044734983504674</v>
       </c>
       <c r="K4">
-        <v>1.045570298722922</v>
+        <v>1.057497257032361</v>
       </c>
       <c r="L4">
-        <v>0.9635338639864333</v>
+        <v>1.0408935346045</v>
       </c>
       <c r="M4">
-        <v>1.026585016099341</v>
+        <v>1.063012526407238</v>
       </c>
       <c r="N4">
-        <v>0.9631824317878037</v>
+        <v>1.046218627014029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.945608557476465</v>
+        <v>1.041029731697383</v>
       </c>
       <c r="D5">
-        <v>1.037967626447874</v>
+        <v>1.055396128757229</v>
       </c>
       <c r="E5">
-        <v>0.9570099388034334</v>
+        <v>1.039119423855581</v>
       </c>
       <c r="F5">
-        <v>1.019670458602529</v>
+        <v>1.061087267927612</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054835547071823</v>
+        <v>1.041596538775869</v>
       </c>
       <c r="J5">
-        <v>0.9660172285690697</v>
+        <v>1.045440902016094</v>
       </c>
       <c r="K5">
-        <v>1.047414763891038</v>
+        <v>1.057781284353437</v>
       </c>
       <c r="L5">
-        <v>0.9674180401421616</v>
+        <v>1.041543920078927</v>
       </c>
       <c r="M5">
-        <v>1.02931833882211</v>
+        <v>1.063458973775612</v>
       </c>
       <c r="N5">
-        <v>0.9673890838373627</v>
+        <v>1.046925548010704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9464105590398096</v>
+        <v>1.0411647940275</v>
       </c>
       <c r="D6">
-        <v>1.038312913888241</v>
+        <v>1.055452373183365</v>
       </c>
       <c r="E6">
-        <v>0.9577021902740569</v>
+        <v>1.039237426901681</v>
       </c>
       <c r="F6">
-        <v>1.020165756084678</v>
+        <v>1.061170762681487</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054987654546875</v>
+        <v>1.041614839566631</v>
       </c>
       <c r="J6">
-        <v>0.9667128627604744</v>
+        <v>1.045559254769775</v>
       </c>
       <c r="K6">
-        <v>1.047720486913919</v>
+        <v>1.057828866686567</v>
       </c>
       <c r="L6">
-        <v>0.9680612274908951</v>
+        <v>1.041652957978201</v>
       </c>
       <c r="M6">
-        <v>1.029771375051897</v>
+        <v>1.063533794490368</v>
       </c>
       <c r="N6">
-        <v>0.9680857059091094</v>
+        <v>1.047044068838871</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9408313336748992</v>
+        <v>1.040235043703803</v>
       </c>
       <c r="D7">
-        <v>1.035914617669817</v>
+        <v>1.055065048351842</v>
       </c>
       <c r="E7">
-        <v>0.952887204685951</v>
+        <v>1.038425078102716</v>
       </c>
       <c r="F7">
-        <v>1.01672419410621</v>
+        <v>1.060595859392127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053929014379931</v>
+        <v>1.041488596932151</v>
       </c>
       <c r="J7">
-        <v>0.9618733355265848</v>
+        <v>1.04474442773368</v>
       </c>
       <c r="K7">
-        <v>1.045595215850893</v>
+        <v>1.057501059410212</v>
       </c>
       <c r="L7">
-        <v>0.9635863804979774</v>
+        <v>1.040902236166323</v>
       </c>
       <c r="M7">
-        <v>1.026621942525087</v>
+        <v>1.063018501248088</v>
       </c>
       <c r="N7">
-        <v>0.9632393059914462</v>
+        <v>1.046228084654923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9156856970862495</v>
+        <v>1.036322413392361</v>
       </c>
       <c r="D8">
-        <v>1.025224888680951</v>
+        <v>1.053431533772584</v>
       </c>
       <c r="E8">
-        <v>0.9312103332891646</v>
+        <v>1.035005705599821</v>
       </c>
       <c r="F8">
-        <v>1.001341513235346</v>
+        <v>1.058173192500805</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049154078380917</v>
+        <v>1.040950809383764</v>
       </c>
       <c r="J8">
-        <v>0.9400583951829834</v>
+        <v>1.041312853571544</v>
       </c>
       <c r="K8">
-        <v>1.036073678647907</v>
+        <v>1.05611521325845</v>
       </c>
       <c r="L8">
-        <v>0.9434104292641491</v>
+        <v>1.037740004553571</v>
       </c>
       <c r="M8">
-        <v>1.012503343484353</v>
+        <v>1.060844154204966</v>
       </c>
       <c r="N8">
-        <v>0.9413933859303479</v>
+        <v>1.042791637263869</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8613217308095223</v>
+        <v>1.029322210173106</v>
       </c>
       <c r="D9">
-        <v>1.002938478344784</v>
+        <v>1.050496478861981</v>
       </c>
       <c r="E9">
-        <v>0.8845236002815681</v>
+        <v>1.028885053480067</v>
       </c>
       <c r="F9">
-        <v>0.968970564549634</v>
+        <v>1.05382711082098</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03895099123559</v>
+        <v>1.039964281910023</v>
       </c>
       <c r="J9">
-        <v>0.8929408312726834</v>
+        <v>1.035163652899761</v>
       </c>
       <c r="K9">
-        <v>1.015984060015674</v>
+        <v>1.053612481286353</v>
       </c>
       <c r="L9">
-        <v>0.8998164326573928</v>
+        <v>1.032071017164081</v>
       </c>
       <c r="M9">
-        <v>0.9825879680712861</v>
+        <v>1.056932610287759</v>
       </c>
       <c r="N9">
-        <v>0.8942089096748356</v>
+        <v>1.036633704021809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8122301009547508</v>
+        <v>1.024578552038499</v>
       </c>
       <c r="D10">
-        <v>0.9840218291895406</v>
+        <v>1.048500063491633</v>
       </c>
       <c r="E10">
-        <v>0.842652587253632</v>
+        <v>1.024735505805264</v>
       </c>
       <c r="F10">
-        <v>0.9410495132994996</v>
+        <v>1.050875115179025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030076843423347</v>
+        <v>1.039279724109462</v>
       </c>
       <c r="J10">
-        <v>0.8505471255356908</v>
+        <v>1.030990234416847</v>
       </c>
       <c r="K10">
-        <v>0.9986856942323596</v>
+        <v>1.051901587359487</v>
       </c>
       <c r="L10">
-        <v>0.8605924770888862</v>
+        <v>1.028221839845995</v>
       </c>
       <c r="M10">
-        <v>0.9565714671622989</v>
+        <v>1.054268395227992</v>
       </c>
       <c r="N10">
-        <v>0.8517550000130701</v>
+        <v>1.032454358805952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7843956135230832</v>
+        <v>1.022504935507702</v>
       </c>
       <c r="D11">
-        <v>0.9738957812026591</v>
+        <v>1.047625791698519</v>
       </c>
       <c r="E11">
-        <v>0.8190718912631743</v>
+        <v>1.022921159158263</v>
       </c>
       <c r="F11">
-        <v>0.9258790954464319</v>
+        <v>1.049583270137849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025256064172658</v>
+        <v>1.038976759488789</v>
       </c>
       <c r="J11">
-        <v>0.8266166558634522</v>
+        <v>1.029164380264286</v>
       </c>
       <c r="K11">
-        <v>0.9893273666637507</v>
+        <v>1.051150324896351</v>
       </c>
       <c r="L11">
-        <v>0.8384596276848746</v>
+        <v>1.02653743511357</v>
       </c>
       <c r="M11">
-        <v>0.9423486470258333</v>
+        <v>1.053100738036456</v>
       </c>
       <c r="N11">
-        <v>0.8277905463290338</v>
+        <v>1.030625911731066</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7722278448119894</v>
+        <v>1.0217316432666</v>
       </c>
       <c r="D12">
-        <v>0.9696179790258322</v>
+        <v>1.047299540408052</v>
       </c>
       <c r="E12">
-        <v>0.8088068087745404</v>
+        <v>1.022244489756791</v>
       </c>
       <c r="F12">
-        <v>0.9194135053307498</v>
+        <v>1.049101319433492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023205243691397</v>
+        <v>1.038863226315164</v>
       </c>
       <c r="J12">
-        <v>0.8161861566741103</v>
+        <v>1.028483258364874</v>
       </c>
       <c r="K12">
-        <v>0.9853513539012179</v>
+        <v>1.050869672347557</v>
       </c>
       <c r="L12">
-        <v>0.8288160451876807</v>
+        <v>1.02590901851592</v>
       </c>
       <c r="M12">
-        <v>0.9362665746512608</v>
+        <v>1.052664855190924</v>
       </c>
       <c r="N12">
-        <v>0.8173452346344483</v>
+        <v>1.02994382256043</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7749484488916274</v>
+        <v>1.021897657407417</v>
       </c>
       <c r="D13">
-        <v>0.9705663420226796</v>
+        <v>1.047369591205353</v>
       </c>
       <c r="E13">
-        <v>0.8110995440333643</v>
+        <v>1.022389763304102</v>
       </c>
       <c r="F13">
-        <v>0.9208500367337579</v>
+        <v>1.049204795547303</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023660629445516</v>
+        <v>1.038887625003883</v>
       </c>
       <c r="J13">
-        <v>0.8185165576668715</v>
+        <v>1.02862949508258</v>
       </c>
       <c r="K13">
-        <v>0.98623402325563</v>
+        <v>1.050929946220886</v>
       </c>
       <c r="L13">
-        <v>0.830970416156568</v>
+        <v>1.026043942203086</v>
       </c>
       <c r="M13">
-        <v>0.937618997674257</v>
+        <v>1.052758452313614</v>
       </c>
       <c r="N13">
-        <v>0.8196789450639198</v>
+        <v>1.03009026695105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7834363638759685</v>
+        <v>1.022441078016063</v>
       </c>
       <c r="D14">
-        <v>0.9735551687883485</v>
+        <v>1.047598854624046</v>
       </c>
       <c r="E14">
-        <v>0.8182616339685934</v>
+        <v>1.022865281952342</v>
       </c>
       <c r="F14">
-        <v>0.9253655976407401</v>
+        <v>1.04954347515723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025093081353245</v>
+        <v>1.03896739526194</v>
       </c>
       <c r="J14">
-        <v>0.8257936401783011</v>
+        <v>1.029108138659291</v>
       </c>
       <c r="K14">
-        <v>0.9890112922074724</v>
+        <v>1.051127158905696</v>
       </c>
       <c r="L14">
-        <v>0.8376986167635436</v>
+        <v>1.026485546745423</v>
       </c>
       <c r="M14">
-        <v>0.9418660690448025</v>
+        <v>1.053064752269792</v>
       </c>
       <c r="N14">
-        <v>0.8269663618672087</v>
+        <v>1.030569590256541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7883794210543633</v>
+        <v>1.0227754885211</v>
       </c>
       <c r="D15">
-        <v>0.9753164483187832</v>
+        <v>1.04773991055088</v>
       </c>
       <c r="E15">
-        <v>0.8224387138718717</v>
+        <v>1.023157898491507</v>
       </c>
       <c r="F15">
-        <v>0.9280184863864491</v>
+        <v>1.049751866581745</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025935274722347</v>
+        <v>1.039016411563825</v>
       </c>
       <c r="J15">
-        <v>0.8300359546883176</v>
+        <v>1.029402656905132</v>
       </c>
       <c r="K15">
-        <v>0.990644759162536</v>
+        <v>1.051248455111487</v>
       </c>
       <c r="L15">
-        <v>0.8416214681680596</v>
+        <v>1.026757266050174</v>
       </c>
       <c r="M15">
-        <v>0.9443583788761706</v>
+        <v>1.053253185509169</v>
       </c>
       <c r="N15">
-        <v>0.8312147009504297</v>
+        <v>1.030864526752073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8138879204055972</v>
+        <v>1.024715748686446</v>
       </c>
       <c r="D16">
-        <v>0.9846393126865123</v>
+        <v>1.048557876463641</v>
       </c>
       <c r="E16">
-        <v>0.844061048038377</v>
+        <v>1.02485553935953</v>
       </c>
       <c r="F16">
-        <v>0.9419690078139851</v>
+        <v>1.050960559079007</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030369267771708</v>
+        <v>1.039299691669297</v>
       </c>
       <c r="J16">
-        <v>0.8519751919333969</v>
+        <v>1.031111006829368</v>
       </c>
       <c r="K16">
-        <v>0.999254048575269</v>
+        <v>1.051951223580295</v>
       </c>
       <c r="L16">
-        <v>0.8619135371412963</v>
+        <v>1.028333247442891</v>
       </c>
       <c r="M16">
-        <v>0.9574314751826216</v>
+        <v>1.05434558849013</v>
       </c>
       <c r="N16">
-        <v>0.8531850944288626</v>
+        <v>1.032575302729151</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8277811374850704</v>
+        <v>1.025927498739002</v>
       </c>
       <c r="D17">
-        <v>0.9898748992113655</v>
+        <v>1.049068314679317</v>
       </c>
       <c r="E17">
-        <v>0.8558807383468067</v>
+        <v>1.025915651344912</v>
       </c>
       <c r="F17">
-        <v>0.9497417628668242</v>
+        <v>1.051715056102476</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032841438715313</v>
+        <v>1.039475622604294</v>
       </c>
       <c r="J17">
-        <v>0.863953834043531</v>
+        <v>1.032177521264348</v>
       </c>
       <c r="K17">
-        <v>1.004062818132576</v>
+        <v>1.052389235469893</v>
       </c>
       <c r="L17">
-        <v>0.8729954726804395</v>
+        <v>1.029317016677194</v>
       </c>
       <c r="M17">
-        <v>0.9646923797469229</v>
+        <v>1.055027028672791</v>
       </c>
       <c r="N17">
-        <v>0.8651807475847628</v>
+        <v>1.033643331736959</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8353244031457663</v>
+        <v>1.026632410800473</v>
       </c>
       <c r="D18">
-        <v>0.9927619376374199</v>
+        <v>1.049365100400377</v>
       </c>
       <c r="E18">
-        <v>0.8623097682291526</v>
+        <v>1.026532308939843</v>
       </c>
       <c r="F18">
-        <v>0.9540107050014226</v>
+        <v>1.052153832079622</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034199012159764</v>
+        <v>1.039577609536506</v>
       </c>
       <c r="J18">
-        <v>0.8704651642642586</v>
+        <v>1.032797800435936</v>
       </c>
       <c r="K18">
-        <v>1.006706790147359</v>
+        <v>1.052643715911215</v>
       </c>
       <c r="L18">
-        <v>0.8790198986215239</v>
+        <v>1.029889132894364</v>
       </c>
       <c r="M18">
-        <v>0.9686734784497858</v>
+        <v>1.055423150840445</v>
       </c>
       <c r="N18">
-        <v>0.8717013246412637</v>
+        <v>1.034264491776119</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8378143318019354</v>
+        <v>1.026872451996388</v>
       </c>
       <c r="D19">
-        <v>0.9937215862384917</v>
+        <v>1.049466137509716</v>
       </c>
       <c r="E19">
-        <v>0.8644336059036311</v>
+        <v>1.026742289991961</v>
       </c>
       <c r="F19">
-        <v>0.9554271321537475</v>
+        <v>1.05230322295715</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03464936334317</v>
+        <v>1.03961227793242</v>
       </c>
       <c r="J19">
-        <v>0.8726155484275007</v>
+        <v>1.033008997271418</v>
       </c>
       <c r="K19">
-        <v>1.007584449884393</v>
+        <v>1.052730317760136</v>
       </c>
       <c r="L19">
-        <v>0.8810095436856107</v>
+        <v>1.030083924321965</v>
       </c>
       <c r="M19">
-        <v>0.9699933622440328</v>
+        <v>1.055557990843041</v>
       </c>
       <c r="N19">
-        <v>0.8738547625966699</v>
+        <v>1.034475988535332</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.826351832252754</v>
+        <v>1.025797684846299</v>
       </c>
       <c r="D20">
-        <v>0.9893313332059844</v>
+        <v>1.049013647399824</v>
       </c>
       <c r="E20">
-        <v>0.8546634546004519</v>
+        <v>1.02580208666107</v>
       </c>
       <c r="F20">
-        <v>0.9489366865718289</v>
+        <v>1.051634241553451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032585384547074</v>
+        <v>1.039456812213989</v>
       </c>
       <c r="J20">
-        <v>0.8627206384063495</v>
+        <v>1.032063281347375</v>
       </c>
       <c r="K20">
-        <v>1.003564408712499</v>
+        <v>1.052342345070567</v>
       </c>
       <c r="L20">
-        <v>0.8718545295363169</v>
+        <v>1.02921164404986</v>
       </c>
       <c r="M20">
-        <v>0.9639410577397148</v>
+        <v>1.054954056653146</v>
       </c>
       <c r="N20">
-        <v>0.863945800668327</v>
+        <v>1.033528929586201</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7810001939324138</v>
+        <v>1.022281139582557</v>
       </c>
       <c r="D21">
-        <v>0.9726927022026765</v>
+        <v>1.047531384161833</v>
       </c>
       <c r="E21">
-        <v>0.8162046156235576</v>
+        <v>1.022725330035361</v>
       </c>
       <c r="F21">
-        <v>0.9240643697375323</v>
+        <v>1.04944380094317</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024680151974655</v>
+        <v>1.038943932599551</v>
       </c>
       <c r="J21">
-        <v>0.8237040043416812</v>
+        <v>1.028967271462649</v>
       </c>
       <c r="K21">
-        <v>0.9882105694841514</v>
+        <v>1.051069129126295</v>
       </c>
       <c r="L21">
-        <v>0.8357664747856204</v>
+        <v>1.026355582019238</v>
       </c>
       <c r="M21">
-        <v>0.9406428416316045</v>
+        <v>1.052974614721155</v>
       </c>
       <c r="N21">
-        <v>0.8248737585080164</v>
+        <v>1.030428523012321</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7398386137395087</v>
+        <v>1.020052390720751</v>
       </c>
       <c r="D22">
-        <v>0.9586996112996862</v>
+        <v>1.046590685104626</v>
       </c>
       <c r="E22">
-        <v>0.7816292532954686</v>
+        <v>1.020774944323822</v>
       </c>
       <c r="F22">
-        <v>0.9027326162611949</v>
+        <v>1.048054393357297</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017931945115919</v>
+        <v>1.038615679271974</v>
       </c>
       <c r="J22">
-        <v>0.7885285577130202</v>
+        <v>1.027003748923101</v>
       </c>
       <c r="K22">
-        <v>0.9751361708887751</v>
+        <v>1.050259332439305</v>
       </c>
       <c r="L22">
-        <v>0.8032592269705257</v>
+        <v>1.024543880593966</v>
       </c>
       <c r="M22">
-        <v>0.9205130390948322</v>
+        <v>1.051717518520937</v>
       </c>
       <c r="N22">
-        <v>0.7896483587104625</v>
+        <v>1.028462212045548</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7636810712697037</v>
+        <v>1.021235615774498</v>
       </c>
       <c r="D23">
-        <v>0.9666696251599119</v>
+        <v>1.04709020763751</v>
       </c>
       <c r="E23">
-        <v>0.8016137141015</v>
+        <v>1.021810423067727</v>
       </c>
       <c r="F23">
-        <v>0.9149355111537035</v>
+        <v>1.048792119615634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021786825779821</v>
+        <v>1.038790246139256</v>
       </c>
       <c r="J23">
-        <v>0.8088721336278921</v>
+        <v>1.02804629025998</v>
       </c>
       <c r="K23">
-        <v>0.9826026945406591</v>
+        <v>1.050689511337437</v>
       </c>
       <c r="L23">
-        <v>0.8220553848384828</v>
+        <v>1.02550584570021</v>
       </c>
       <c r="M23">
-        <v>0.9320466034521372</v>
+        <v>1.052385136506321</v>
       </c>
       <c r="N23">
-        <v>0.8100208248365742</v>
+        <v>1.029506233910707</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8269993613634439</v>
+        <v>1.025856347962978</v>
       </c>
       <c r="D24">
-        <v>0.9895774507127081</v>
+        <v>1.04903835210645</v>
       </c>
       <c r="E24">
-        <v>0.8552148940602377</v>
+        <v>1.025853406862857</v>
       </c>
       <c r="F24">
-        <v>0.9493012646033487</v>
+        <v>1.051670762212575</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032701339215842</v>
+        <v>1.039465313767528</v>
       </c>
       <c r="J24">
-        <v>0.8632792990751661</v>
+        <v>1.032114907006575</v>
       </c>
       <c r="K24">
-        <v>1.003790104063756</v>
+        <v>1.052363535925912</v>
       </c>
       <c r="L24">
-        <v>0.8723713965245837</v>
+        <v>1.02925926265109</v>
       </c>
       <c r="M24">
-        <v>0.9642813141358988</v>
+        <v>1.054987033737579</v>
       </c>
       <c r="N24">
-        <v>0.8645052546993723</v>
+        <v>1.03358062855976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8769991330528545</v>
+        <v>1.031145040078</v>
       </c>
       <c r="D25">
-        <v>1.009234623641937</v>
+        <v>1.051262135423201</v>
       </c>
       <c r="E25">
-        <v>0.8979576018690338</v>
+        <v>1.030479191592467</v>
       </c>
       <c r="F25">
-        <v>0.978164777945881</v>
+        <v>1.054960090630867</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041863517727364</v>
+        <v>1.04022400412005</v>
       </c>
       <c r="J25">
-        <v>0.9065159442699621</v>
+        <v>1.036766016689544</v>
       </c>
       <c r="K25">
-        <v>1.021691255640392</v>
+        <v>1.054266851522654</v>
       </c>
       <c r="L25">
-        <v>0.9123775702568485</v>
+        <v>1.033548537093665</v>
       </c>
       <c r="M25">
-        <v>0.9911117868462805</v>
+        <v>1.057953598108535</v>
       </c>
       <c r="N25">
-        <v>0.9078033008896573</v>
+        <v>1.038238343351968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_233/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035308180912854</v>
+        <v>0.9086607725164073</v>
       </c>
       <c r="D2">
-        <v>1.053007218568018</v>
+        <v>1.022277282705679</v>
       </c>
       <c r="E2">
-        <v>1.034119133837381</v>
+        <v>0.92516255149993</v>
       </c>
       <c r="F2">
-        <v>1.057544371387219</v>
+        <v>0.9970856874038306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040809748337796</v>
+        <v>1.047822600465578</v>
       </c>
       <c r="J2">
-        <v>1.040422665769014</v>
+        <v>0.9339645898446749</v>
       </c>
       <c r="K2">
-        <v>1.055754377434827</v>
+        <v>1.033434744335406</v>
       </c>
       <c r="L2">
-        <v>1.036919524428249</v>
+        <v>0.9377732929429833</v>
       </c>
       <c r="M2">
-        <v>1.0602790502247</v>
+        <v>1.008585773102598</v>
       </c>
       <c r="N2">
-        <v>1.041900185292554</v>
+        <v>0.9352909266894901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038300985665554</v>
+        <v>0.9287609281127233</v>
       </c>
       <c r="D3">
-        <v>1.054258277299736</v>
+        <v>1.030757647260892</v>
       </c>
       <c r="E3">
-        <v>1.036735000896053</v>
+        <v>0.9424765926778973</v>
       </c>
       <c r="F3">
-        <v>1.059398956129997</v>
+        <v>1.009312605771319</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04122405548643</v>
+        <v>1.05163648137572</v>
       </c>
       <c r="J3">
-        <v>1.043048671635841</v>
+        <v>0.9514018533115557</v>
       </c>
       <c r="K3">
-        <v>1.056817272340243</v>
+        <v>1.041011541026283</v>
       </c>
       <c r="L3">
-        <v>1.039339705122441</v>
+        <v>0.9539025455627106</v>
       </c>
       <c r="M3">
-        <v>1.061944851116097</v>
+        <v>1.019827700766902</v>
       </c>
       <c r="N3">
-        <v>1.044529920388919</v>
+        <v>0.9527529530705759</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0402242690657</v>
+        <v>0.9407658632540886</v>
       </c>
       <c r="D4">
-        <v>1.0550605577591</v>
+        <v>1.035886527171833</v>
       </c>
       <c r="E4">
-        <v>1.038415663561509</v>
+        <v>0.9528307129668261</v>
       </c>
       <c r="F4">
-        <v>1.060589195123923</v>
+        <v>1.016683865378163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041487130357193</v>
+        <v>1.053916585702541</v>
       </c>
       <c r="J4">
-        <v>1.044734983504674</v>
+        <v>0.9618165419763013</v>
       </c>
       <c r="K4">
-        <v>1.057497257032361</v>
+        <v>1.045570298722923</v>
       </c>
       <c r="L4">
-        <v>1.0408935346045</v>
+        <v>0.9635338639864368</v>
       </c>
       <c r="M4">
-        <v>1.063012526407238</v>
+        <v>1.026585016099342</v>
       </c>
       <c r="N4">
-        <v>1.046218627014029</v>
+        <v>0.9631824317878072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041029731697383</v>
+        <v>0.9456085574764641</v>
       </c>
       <c r="D5">
-        <v>1.055396128757229</v>
+        <v>1.037967626447874</v>
       </c>
       <c r="E5">
-        <v>1.039119423855581</v>
+        <v>0.957009938803432</v>
       </c>
       <c r="F5">
-        <v>1.061087267927612</v>
+        <v>1.019670458602528</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041596538775869</v>
+        <v>1.054835547071823</v>
       </c>
       <c r="J5">
-        <v>1.045440902016094</v>
+        <v>0.9660172285690685</v>
       </c>
       <c r="K5">
-        <v>1.057781284353437</v>
+        <v>1.047414763891038</v>
       </c>
       <c r="L5">
-        <v>1.041543920078927</v>
+        <v>0.9674180401421602</v>
       </c>
       <c r="M5">
-        <v>1.063458973775612</v>
+        <v>1.02931833882211</v>
       </c>
       <c r="N5">
-        <v>1.046925548010704</v>
+        <v>0.967389083837361</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0411647940275</v>
+        <v>0.9464105590398102</v>
       </c>
       <c r="D6">
-        <v>1.055452373183365</v>
+        <v>1.038312913888241</v>
       </c>
       <c r="E6">
-        <v>1.039237426901681</v>
+        <v>0.9577021902740572</v>
       </c>
       <c r="F6">
-        <v>1.061170762681487</v>
+        <v>1.020165756084677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041614839566631</v>
+        <v>1.054987654546875</v>
       </c>
       <c r="J6">
-        <v>1.045559254769775</v>
+        <v>0.9667128627604747</v>
       </c>
       <c r="K6">
-        <v>1.057828866686567</v>
+        <v>1.047720486913919</v>
       </c>
       <c r="L6">
-        <v>1.041652957978201</v>
+        <v>0.9680612274908951</v>
       </c>
       <c r="M6">
-        <v>1.063533794490368</v>
+        <v>1.029771375051897</v>
       </c>
       <c r="N6">
-        <v>1.047044068838871</v>
+        <v>0.96808570590911</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040235043703803</v>
+        <v>0.9408313336748969</v>
       </c>
       <c r="D7">
-        <v>1.055065048351842</v>
+        <v>1.035914617669817</v>
       </c>
       <c r="E7">
-        <v>1.038425078102716</v>
+        <v>0.9528872046859488</v>
       </c>
       <c r="F7">
-        <v>1.060595859392127</v>
+        <v>1.01672419410621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041488596932151</v>
+        <v>1.053929014379931</v>
       </c>
       <c r="J7">
-        <v>1.04474442773368</v>
+        <v>0.9618733355265826</v>
       </c>
       <c r="K7">
-        <v>1.057501059410212</v>
+        <v>1.045595215850893</v>
       </c>
       <c r="L7">
-        <v>1.040902236166323</v>
+        <v>0.9635863804979752</v>
       </c>
       <c r="M7">
-        <v>1.063018501248088</v>
+        <v>1.026621942525086</v>
       </c>
       <c r="N7">
-        <v>1.046228084654923</v>
+        <v>0.963239305991444</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036322413392361</v>
+        <v>0.9156856970862511</v>
       </c>
       <c r="D8">
-        <v>1.053431533772584</v>
+        <v>1.025224888680952</v>
       </c>
       <c r="E8">
-        <v>1.035005705599821</v>
+        <v>0.9312103332891658</v>
       </c>
       <c r="F8">
-        <v>1.058173192500805</v>
+        <v>1.001341513235348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040950809383764</v>
+        <v>1.049154078380918</v>
       </c>
       <c r="J8">
-        <v>1.041312853571544</v>
+        <v>0.9400583951829845</v>
       </c>
       <c r="K8">
-        <v>1.05611521325845</v>
+        <v>1.036073678647908</v>
       </c>
       <c r="L8">
-        <v>1.037740004553571</v>
+        <v>0.9434104292641503</v>
       </c>
       <c r="M8">
-        <v>1.060844154204966</v>
+        <v>1.012503343484354</v>
       </c>
       <c r="N8">
-        <v>1.042791637263869</v>
+        <v>0.9413933859303496</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029322210173106</v>
+        <v>0.8613217308095248</v>
       </c>
       <c r="D9">
-        <v>1.050496478861981</v>
+        <v>1.002938478344785</v>
       </c>
       <c r="E9">
-        <v>1.028885053480067</v>
+        <v>0.8845236002815706</v>
       </c>
       <c r="F9">
-        <v>1.05382711082098</v>
+        <v>0.9689705645496356</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039964281910023</v>
+        <v>1.038950991235591</v>
       </c>
       <c r="J9">
-        <v>1.035163652899761</v>
+        <v>0.8929408312726856</v>
       </c>
       <c r="K9">
-        <v>1.053612481286353</v>
+        <v>1.015984060015675</v>
       </c>
       <c r="L9">
-        <v>1.032071017164081</v>
+        <v>0.8998164326573953</v>
       </c>
       <c r="M9">
-        <v>1.056932610287759</v>
+        <v>0.9825879680712876</v>
       </c>
       <c r="N9">
-        <v>1.036633704021809</v>
+        <v>0.8942089096748379</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024578552038499</v>
+        <v>0.8122301009547513</v>
       </c>
       <c r="D10">
-        <v>1.048500063491633</v>
+        <v>0.9840218291895402</v>
       </c>
       <c r="E10">
-        <v>1.024735505805264</v>
+        <v>0.8426525872536326</v>
       </c>
       <c r="F10">
-        <v>1.050875115179025</v>
+        <v>0.9410495132994989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039279724109462</v>
+        <v>1.030076843423346</v>
       </c>
       <c r="J10">
-        <v>1.030990234416847</v>
+        <v>0.850547125535691</v>
       </c>
       <c r="K10">
-        <v>1.051901587359487</v>
+        <v>0.9986856942323592</v>
       </c>
       <c r="L10">
-        <v>1.028221839845995</v>
+        <v>0.8605924770888866</v>
       </c>
       <c r="M10">
-        <v>1.054268395227992</v>
+        <v>0.9565714671622984</v>
       </c>
       <c r="N10">
-        <v>1.032454358805952</v>
+        <v>0.8517550000130708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022504935507702</v>
+        <v>0.7843956135230817</v>
       </c>
       <c r="D11">
-        <v>1.047625791698519</v>
+        <v>0.9738957812026581</v>
       </c>
       <c r="E11">
-        <v>1.022921159158263</v>
+        <v>0.819071891263173</v>
       </c>
       <c r="F11">
-        <v>1.049583270137849</v>
+        <v>0.9258790954464308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038976759488789</v>
+        <v>1.025256064172657</v>
       </c>
       <c r="J11">
-        <v>1.029164380264286</v>
+        <v>0.8266166558634508</v>
       </c>
       <c r="K11">
-        <v>1.051150324896351</v>
+        <v>0.9893273666637499</v>
       </c>
       <c r="L11">
-        <v>1.02653743511357</v>
+        <v>0.8384596276848734</v>
       </c>
       <c r="M11">
-        <v>1.053100738036456</v>
+        <v>0.9423486470258327</v>
       </c>
       <c r="N11">
-        <v>1.030625911731066</v>
+        <v>0.8277905463290326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0217316432666</v>
+        <v>0.7722278448119879</v>
       </c>
       <c r="D12">
-        <v>1.047299540408052</v>
+        <v>0.9696179790258315</v>
       </c>
       <c r="E12">
-        <v>1.022244489756791</v>
+        <v>0.8088068087745393</v>
       </c>
       <c r="F12">
-        <v>1.049101319433492</v>
+        <v>0.9194135053307488</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038863226315164</v>
+        <v>1.023205243691397</v>
       </c>
       <c r="J12">
-        <v>1.028483258364874</v>
+        <v>0.8161861566741089</v>
       </c>
       <c r="K12">
-        <v>1.050869672347557</v>
+        <v>0.9853513539012171</v>
       </c>
       <c r="L12">
-        <v>1.02590901851592</v>
+        <v>0.8288160451876795</v>
       </c>
       <c r="M12">
-        <v>1.052664855190924</v>
+        <v>0.9362665746512601</v>
       </c>
       <c r="N12">
-        <v>1.02994382256043</v>
+        <v>0.8173452346344469</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021897657407417</v>
+        <v>0.7749484488916237</v>
       </c>
       <c r="D13">
-        <v>1.047369591205353</v>
+        <v>0.9705663420226784</v>
       </c>
       <c r="E13">
-        <v>1.022389763304102</v>
+        <v>0.811099544033361</v>
       </c>
       <c r="F13">
-        <v>1.049204795547303</v>
+        <v>0.9208500367337557</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038887625003883</v>
+        <v>1.023660629445516</v>
       </c>
       <c r="J13">
-        <v>1.02862949508258</v>
+        <v>0.8185165576668683</v>
       </c>
       <c r="K13">
-        <v>1.050929946220886</v>
+        <v>0.9862340232556287</v>
       </c>
       <c r="L13">
-        <v>1.026043942203086</v>
+        <v>0.8309704161565652</v>
       </c>
       <c r="M13">
-        <v>1.052758452313614</v>
+        <v>0.9376189976742551</v>
       </c>
       <c r="N13">
-        <v>1.03009026695105</v>
+        <v>0.8196789450639167</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022441078016063</v>
+        <v>0.7834363638759737</v>
       </c>
       <c r="D14">
-        <v>1.047598854624046</v>
+        <v>0.9735551687883485</v>
       </c>
       <c r="E14">
-        <v>1.022865281952342</v>
+        <v>0.8182616339685981</v>
       </c>
       <c r="F14">
-        <v>1.04954347515723</v>
+        <v>0.9253655976407408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03896739526194</v>
+        <v>1.025093081353245</v>
       </c>
       <c r="J14">
-        <v>1.029108138659291</v>
+        <v>0.825793640178306</v>
       </c>
       <c r="K14">
-        <v>1.051127158905696</v>
+        <v>0.9890112922074722</v>
       </c>
       <c r="L14">
-        <v>1.026485546745423</v>
+        <v>0.8376986167635478</v>
       </c>
       <c r="M14">
-        <v>1.053064752269792</v>
+        <v>0.9418660690448032</v>
       </c>
       <c r="N14">
-        <v>1.030569590256541</v>
+        <v>0.8269663618672135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0227754885211</v>
+        <v>0.7883794210543639</v>
       </c>
       <c r="D15">
-        <v>1.04773991055088</v>
+        <v>0.9753164483187826</v>
       </c>
       <c r="E15">
-        <v>1.023157898491507</v>
+        <v>0.822438713871872</v>
       </c>
       <c r="F15">
-        <v>1.049751866581745</v>
+        <v>0.9280184863864487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039016411563825</v>
+        <v>1.025935274722346</v>
       </c>
       <c r="J15">
-        <v>1.029402656905132</v>
+        <v>0.8300359546883179</v>
       </c>
       <c r="K15">
-        <v>1.051248455111487</v>
+        <v>0.9906447591625356</v>
       </c>
       <c r="L15">
-        <v>1.026757266050174</v>
+        <v>0.8416214681680599</v>
       </c>
       <c r="M15">
-        <v>1.053253185509169</v>
+        <v>0.9443583788761701</v>
       </c>
       <c r="N15">
-        <v>1.030864526752073</v>
+        <v>0.83121470095043</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024715748686446</v>
+        <v>0.8138879204055983</v>
       </c>
       <c r="D16">
-        <v>1.048557876463641</v>
+        <v>0.9846393126865108</v>
       </c>
       <c r="E16">
-        <v>1.02485553935953</v>
+        <v>0.8440610480383781</v>
       </c>
       <c r="F16">
-        <v>1.050960559079007</v>
+        <v>0.9419690078139838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039299691669297</v>
+        <v>1.030369267771707</v>
       </c>
       <c r="J16">
-        <v>1.031111006829368</v>
+        <v>0.8519751919333977</v>
       </c>
       <c r="K16">
-        <v>1.051951223580295</v>
+        <v>0.9992540485752678</v>
       </c>
       <c r="L16">
-        <v>1.028333247442891</v>
+        <v>0.8619135371412974</v>
       </c>
       <c r="M16">
-        <v>1.05434558849013</v>
+        <v>0.9574314751826204</v>
       </c>
       <c r="N16">
-        <v>1.032575302729151</v>
+        <v>0.8531850944288635</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025927498739002</v>
+        <v>0.8277811374850724</v>
       </c>
       <c r="D17">
-        <v>1.049068314679317</v>
+        <v>0.9898748992113666</v>
       </c>
       <c r="E17">
-        <v>1.025915651344912</v>
+        <v>0.8558807383468086</v>
       </c>
       <c r="F17">
-        <v>1.051715056102476</v>
+        <v>0.949741762866826</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039475622604294</v>
+        <v>1.032841438715314</v>
       </c>
       <c r="J17">
-        <v>1.032177521264348</v>
+        <v>0.8639538340435328</v>
       </c>
       <c r="K17">
-        <v>1.052389235469893</v>
+        <v>1.004062818132577</v>
       </c>
       <c r="L17">
-        <v>1.029317016677194</v>
+        <v>0.8729954726804413</v>
       </c>
       <c r="M17">
-        <v>1.055027028672791</v>
+        <v>0.9646923797469245</v>
       </c>
       <c r="N17">
-        <v>1.033643331736959</v>
+        <v>0.8651807475847644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026632410800473</v>
+        <v>0.8353244031457673</v>
       </c>
       <c r="D18">
-        <v>1.049365100400377</v>
+        <v>0.99276193763742</v>
       </c>
       <c r="E18">
-        <v>1.026532308939843</v>
+        <v>0.862309768229154</v>
       </c>
       <c r="F18">
-        <v>1.052153832079622</v>
+        <v>0.9540107050014233</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039577609536506</v>
+        <v>1.034199012159765</v>
       </c>
       <c r="J18">
-        <v>1.032797800435936</v>
+        <v>0.8704651642642596</v>
       </c>
       <c r="K18">
-        <v>1.052643715911215</v>
+        <v>1.006706790147359</v>
       </c>
       <c r="L18">
-        <v>1.029889132894364</v>
+        <v>0.8790198986215251</v>
       </c>
       <c r="M18">
-        <v>1.055423150840445</v>
+        <v>0.9686734784497866</v>
       </c>
       <c r="N18">
-        <v>1.034264491776119</v>
+        <v>0.8717013246412646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026872451996388</v>
+        <v>0.8378143318019355</v>
       </c>
       <c r="D19">
-        <v>1.049466137509716</v>
+        <v>0.9937215862384918</v>
       </c>
       <c r="E19">
-        <v>1.026742289991961</v>
+        <v>0.8644336059036312</v>
       </c>
       <c r="F19">
-        <v>1.05230322295715</v>
+        <v>0.9554271321537476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03961227793242</v>
+        <v>1.03464936334317</v>
       </c>
       <c r="J19">
-        <v>1.033008997271418</v>
+        <v>0.8726155484275007</v>
       </c>
       <c r="K19">
-        <v>1.052730317760136</v>
+        <v>1.007584449884393</v>
       </c>
       <c r="L19">
-        <v>1.030083924321965</v>
+        <v>0.8810095436856109</v>
       </c>
       <c r="M19">
-        <v>1.055557990843041</v>
+        <v>0.9699933622440329</v>
       </c>
       <c r="N19">
-        <v>1.034475988535332</v>
+        <v>0.8738547625966702</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025797684846299</v>
+        <v>0.8263518322527571</v>
       </c>
       <c r="D20">
-        <v>1.049013647399824</v>
+        <v>0.9893313332059862</v>
       </c>
       <c r="E20">
-        <v>1.02580208666107</v>
+        <v>0.8546634546004549</v>
       </c>
       <c r="F20">
-        <v>1.051634241553451</v>
+        <v>0.9489366865718312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039456812213989</v>
+        <v>1.032585384547075</v>
       </c>
       <c r="J20">
-        <v>1.032063281347375</v>
+        <v>0.8627206384063527</v>
       </c>
       <c r="K20">
-        <v>1.052342345070567</v>
+        <v>1.0035644087125</v>
       </c>
       <c r="L20">
-        <v>1.02921164404986</v>
+        <v>0.8718545295363199</v>
       </c>
       <c r="M20">
-        <v>1.054954056653146</v>
+        <v>0.9639410577397169</v>
       </c>
       <c r="N20">
-        <v>1.033528929586201</v>
+        <v>0.8639458006683302</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022281139582557</v>
+        <v>0.7810001939324138</v>
       </c>
       <c r="D21">
-        <v>1.047531384161833</v>
+        <v>0.9726927022026773</v>
       </c>
       <c r="E21">
-        <v>1.022725330035361</v>
+        <v>0.8162046156235576</v>
       </c>
       <c r="F21">
-        <v>1.04944380094317</v>
+        <v>0.9240643697375329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038943932599551</v>
+        <v>1.024680151974655</v>
       </c>
       <c r="J21">
-        <v>1.028967271462649</v>
+        <v>0.8237040043416813</v>
       </c>
       <c r="K21">
-        <v>1.051069129126295</v>
+        <v>0.9882105694841523</v>
       </c>
       <c r="L21">
-        <v>1.026355582019238</v>
+        <v>0.8357664747856202</v>
       </c>
       <c r="M21">
-        <v>1.052974614721155</v>
+        <v>0.9406428416316051</v>
       </c>
       <c r="N21">
-        <v>1.030428523012321</v>
+        <v>0.8248737585080164</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020052390720751</v>
+        <v>0.7398386137395111</v>
       </c>
       <c r="D22">
-        <v>1.046590685104626</v>
+        <v>0.9586996112996871</v>
       </c>
       <c r="E22">
-        <v>1.020774944323822</v>
+        <v>0.7816292532954706</v>
       </c>
       <c r="F22">
-        <v>1.048054393357297</v>
+        <v>0.9027326162611963</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038615679271974</v>
+        <v>1.01793194511592</v>
       </c>
       <c r="J22">
-        <v>1.027003748923101</v>
+        <v>0.7885285577130224</v>
       </c>
       <c r="K22">
-        <v>1.050259332439305</v>
+        <v>0.9751361708887758</v>
       </c>
       <c r="L22">
-        <v>1.024543880593966</v>
+        <v>0.8032592269705274</v>
       </c>
       <c r="M22">
-        <v>1.051717518520937</v>
+        <v>0.9205130390948335</v>
       </c>
       <c r="N22">
-        <v>1.028462212045548</v>
+        <v>0.7896483587104647</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021235615774498</v>
+        <v>0.763681071269702</v>
       </c>
       <c r="D23">
-        <v>1.04709020763751</v>
+        <v>0.9666696251599116</v>
       </c>
       <c r="E23">
-        <v>1.021810423067727</v>
+        <v>0.8016137141014985</v>
       </c>
       <c r="F23">
-        <v>1.048792119615634</v>
+        <v>0.9149355111537032</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038790246139256</v>
+        <v>1.021786825779821</v>
       </c>
       <c r="J23">
-        <v>1.02804629025998</v>
+        <v>0.8088721336278906</v>
       </c>
       <c r="K23">
-        <v>1.050689511337437</v>
+        <v>0.9826026945406588</v>
       </c>
       <c r="L23">
-        <v>1.02550584570021</v>
+        <v>0.8220553848384814</v>
       </c>
       <c r="M23">
-        <v>1.052385136506321</v>
+        <v>0.932046603452137</v>
       </c>
       <c r="N23">
-        <v>1.029506233910707</v>
+        <v>0.8100208248365726</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025856347962978</v>
+        <v>0.8269993613634439</v>
       </c>
       <c r="D24">
-        <v>1.04903835210645</v>
+        <v>0.9895774507127075</v>
       </c>
       <c r="E24">
-        <v>1.025853406862857</v>
+        <v>0.8552148940602378</v>
       </c>
       <c r="F24">
-        <v>1.051670762212575</v>
+        <v>0.9493012646033482</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039465313767528</v>
+        <v>1.032701339215841</v>
       </c>
       <c r="J24">
-        <v>1.032114907006575</v>
+        <v>0.863279299075166</v>
       </c>
       <c r="K24">
-        <v>1.052363535925912</v>
+        <v>1.003790104063756</v>
       </c>
       <c r="L24">
-        <v>1.02925926265109</v>
+        <v>0.8723713965245841</v>
       </c>
       <c r="M24">
-        <v>1.054987033737579</v>
+        <v>0.9642813141358982</v>
       </c>
       <c r="N24">
-        <v>1.03358062855976</v>
+        <v>0.8645052546993722</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031145040078</v>
+        <v>0.8769991330528527</v>
       </c>
       <c r="D25">
-        <v>1.051262135423201</v>
+        <v>1.009234623641936</v>
       </c>
       <c r="E25">
-        <v>1.030479191592467</v>
+        <v>0.8979576018690323</v>
       </c>
       <c r="F25">
-        <v>1.054960090630867</v>
+        <v>0.9781647779458799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04022400412005</v>
+        <v>1.041863517727363</v>
       </c>
       <c r="J25">
-        <v>1.036766016689544</v>
+        <v>0.9065159442699602</v>
       </c>
       <c r="K25">
-        <v>1.054266851522654</v>
+        <v>1.021691255640391</v>
       </c>
       <c r="L25">
-        <v>1.033548537093665</v>
+        <v>0.9123775702568471</v>
       </c>
       <c r="M25">
-        <v>1.057953598108535</v>
+        <v>0.9911117868462794</v>
       </c>
       <c r="N25">
-        <v>1.038238343351968</v>
+        <v>0.9078033008896558</v>
       </c>
     </row>
   </sheetData>
